--- a/S3-LCDel.xlsx
+++ b/S3-LCDel.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://icwahs-my.sharepoint.com/personal/khalaf_icwahs_com/Documents/Imua Learning/Clients/Pearson/Scott/Phase 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CDA9D4D-54AD-4DAB-A1A9-A5E322A3C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{3CDA9D4D-54AD-4DAB-A1A9-A5E322A3C8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9D12DA1F-FA5E-4985-ADFE-AC0E206BE02B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6C634A87-1484-4E8F-9890-7B1CD247FC89}"/>
   </bookViews>
   <sheets>
     <sheet name="S3-LCDel" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="138">
   <si>
     <t>Course content</t>
   </si>
@@ -413,6 +414,27 @@
   </si>
   <si>
     <t>Fantastic learning. The instructor's clarity and enthusiasm made every topic enjoyable. Labs were integral.</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly Disagree</t>
   </si>
 </sst>
 </file>
@@ -980,6 +1002,17 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D5AF5945-221C-4088-935C-79490F90BB4F}" name="Table2" displayName="Table2" ref="A1:B6" totalsRowShown="0">
+  <autoFilter ref="A1:B6" xr:uid="{D5AF5945-221C-4088-935C-79490F90BB4F}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{FBD3AED6-C3AA-4B5A-A6DB-A524837D239F}" name="Scale"/>
+    <tableColumn id="2" xr3:uid="{FEC621B0-C6C8-47FA-8616-8F4FDCE9EDA4}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -40236,4 +40269,73 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33797DF7-75EE-41D4-B82E-7D13A7FB00E5}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>